--- a/biology/Médecine/Léfamuline/Léfamuline.xlsx
+++ b/biology/Médecine/Léfamuline/Léfamuline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9famuline</t>
+          <t>Léfamuline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La léfamuline est un antibiotique de la famille des pleuromutilines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9famuline</t>
+          <t>Léfamuline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Spectre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est active sur la majorité des cocci gram +, y compris ceux qui sont producteurs de bêta-lactamases[1] et sur les Staphylococcus aureus résistant à la méticilline[2], sur le mycoplasma pneumoniae[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est active sur la majorité des cocci gram +, y compris ceux qui sont producteurs de bêta-lactamases et sur les Staphylococcus aureus résistant à la méticilline, sur le mycoplasma pneumoniae.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9famuline</t>
+          <t>Léfamuline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous le nom de Xenleta, il est approuvé par la Food and Drug Administration, aux États-Unis, pour le traitement des pneumopathies bactériennes communautaires[4]. Son efficacité, par voie orale, est alors comparable à celle de la moxifloxacine[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le nom de Xenleta, il est approuvé par la Food and Drug Administration, aux États-Unis, pour le traitement des pneumopathies bactériennes communautaires. Son efficacité, par voie orale, est alors comparable à celle de la moxifloxacine.
 </t>
         </is>
       </c>
